--- a/Tabla de Riesgos.xlsx
+++ b/Tabla de Riesgos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26220"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="249" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E774BAD-3481-45FF-B7B1-6B4BCB7D5E7E}"/>
+  <xr:revisionPtr revIDLastSave="254" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA63A2A7-6EEC-442C-8A5D-CC3F62BD7759}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>Proyecto</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Cursos no accesibles por colaborador</t>
   </si>
   <si>
-    <t>Reportar el error correspondiente en el bugTracker y probar con otro curso</t>
+    <t>Realizar pruebas funcionales</t>
   </si>
   <si>
     <t>Acceso al contenido de los cursos</t>
@@ -109,25 +109,16 @@
     <t>Contenido de los cursos inaccesibles</t>
   </si>
   <si>
-    <t>Reportar el error correspondiente en el bugTracker y continuar con el contenido de otro curso</t>
-  </si>
-  <si>
     <t>Progreso del curso</t>
   </si>
   <si>
     <t>Progreso completado segun vaya avanzando el colaborador con la tematica del curso</t>
   </si>
   <si>
-    <t>Reportar el error correspondiente en el bugTracker y continuar con el progreso de otro curso</t>
-  </si>
-  <si>
     <t>Resultado de los examenes</t>
   </si>
   <si>
     <t>No arrojar el resultado del examen realizado por el colaborador luego de ejecutar todo el contenido del curso</t>
-  </si>
-  <si>
-    <t>Reportar el error correspondiente en el bugTracker y continuar con la revision del examen de otro curso</t>
   </si>
 </sst>
 </file>
@@ -253,53 +244,53 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -635,407 +626,403 @@
         <v>0</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="E3" s="5">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="42" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="5">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="5">
         <v>6</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="30.75" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5">
+        <v>3</v>
+      </c>
+      <c r="G9" s="5">
         <v>9</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="G12" s="1">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2" t="s">
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="E17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="10" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="1">
-        <v>3</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
         <v>2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="5">
         <v>6</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="11" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="1">
-        <v>3</v>
-      </c>
-      <c r="F21" s="1">
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5">
         <v>2</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="5">
         <v>6</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2</v>
+      </c>
+      <c r="G24" s="5">
+        <v>6</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="1">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1">
-        <v>6</v>
-      </c>
-      <c r="H24" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3</v>
-      </c>
-      <c r="F27" s="16">
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6">
         <v>1</v>
       </c>
-      <c r="G27" s="1">
-        <v>3</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>31</v>
+      <c r="G27" s="5">
+        <v>3</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="A2:B14"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="D18:D20"/>
@@ -1046,26 +1033,30 @@
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="E6:E8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
